--- a/tables/comorbidities_fisher.xlsx
+++ b/tables/comorbidities_fisher.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="28730"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="29328"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://bcmedu-my.sharepoint.com/personal/u244834_bcm_edu/Documents/BCM/Projects/Bike-Injuries/Manuscript/GitHub/tables/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="2" documentId="11_0F65FDCE8F79A8D366075C52F3B26AF5A8A48161" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{1517B8C8-3140-4378-B84B-67DE34D48648}"/>
+  <xr:revisionPtr revIDLastSave="5" documentId="11_4F71FDCE8F79A8D366075C52F32A6236794CB6FB" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{784372D9-DDA0-4BE4-B118-D95AC0F670A5}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="5235" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -43,43 +43,43 @@
     <t>Alcohol Use Disorder</t>
   </si>
   <si>
-    <t>5.74 [5.33-6.19]</t>
+    <t>5.88 [5.44-6.36]</t>
   </si>
   <si>
     <t>Tobacco Use Disorder</t>
   </si>
   <si>
-    <t>6.34 [6.08-6.61]</t>
+    <t>5.89 [5.63-6.17]</t>
   </si>
   <si>
     <t>Substance Use Disorder</t>
   </si>
   <si>
-    <t>7.29 [6.83-7.79]</t>
+    <t>6.24 [5.78-6.75]</t>
   </si>
   <si>
     <t>Mental/Personality Disorder</t>
   </si>
   <si>
-    <t>1.74 [1.66-1.83]</t>
+    <t>1.61 [1.53-1.69]</t>
   </si>
   <si>
     <t>Congestive heart failure</t>
   </si>
   <si>
-    <t>1.81 [1.58-2.09]</t>
+    <t>1.75 [1.51-2.03]</t>
   </si>
   <si>
     <t>End stage renal disease</t>
   </si>
   <si>
-    <t>1.73 [1.38-2.19]</t>
+    <t>1.78 [1.4-2.27]</t>
   </si>
   <si>
     <t>Diabetes</t>
   </si>
   <si>
-    <t>1.27 [1.21-1.34]</t>
+    <t>1.26 [1.19-1.32]</t>
   </si>
   <si>
     <t>Hypertension</t>
@@ -91,31 +91,31 @@
     <t>COPD</t>
   </si>
   <si>
-    <t>2.83 [2.58-3.11]</t>
+    <t>2.83 [2.57-3.13]</t>
   </si>
   <si>
     <t>Bleeding disorder</t>
   </si>
   <si>
-    <t>0.75 [0.64-0.87]</t>
+    <t>0.75 [0.64-0.88]</t>
   </si>
   <si>
     <t>Anticoagulant therapy</t>
   </si>
   <si>
-    <t>0.6 [0.57-0.64]</t>
+    <t>0.62 [0.59-0.66]</t>
   </si>
   <si>
     <t>Cirrhosis</t>
   </si>
   <si>
-    <t>5.49 [4.38-6.95]</t>
+    <t>5.27 [4.16-6.77]</t>
   </si>
   <si>
     <t>Cerebrovascular attack</t>
   </si>
   <si>
-    <t>1.39 [1.2-1.62]</t>
+    <t>1.28 [1.1-1.5]</t>
   </si>
 </sst>
 </file>
@@ -471,13 +471,13 @@
   <dimension ref="A1:F14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F6" sqref="F6:F11"/>
+      <selection activeCell="M10" sqref="M10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="26.7109375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.42578125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -485,16 +485,16 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E1" s="1" t="s">
         <v>1</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>4</v>
       </c>
       <c r="F1" s="1" t="s">
         <v>5</v>
@@ -505,16 +505,16 @@
         <v>6</v>
       </c>
       <c r="B2">
+        <v>5.8761682018457426</v>
+      </c>
+      <c r="C2">
+        <v>5.4386296513428762</v>
+      </c>
+      <c r="D2">
+        <v>6.3566909232462221</v>
+      </c>
+      <c r="E2">
         <v>0</v>
-      </c>
-      <c r="C2">
-        <v>5.7429936111681519</v>
-      </c>
-      <c r="D2">
-        <v>5.3349333854865204</v>
-      </c>
-      <c r="E2">
-        <v>6.1891903940682447</v>
       </c>
       <c r="F2" t="s">
         <v>7</v>
@@ -525,16 +525,16 @@
         <v>8</v>
       </c>
       <c r="B3">
+        <v>5.892634095806506</v>
+      </c>
+      <c r="C3">
+        <v>5.6310839072643244</v>
+      </c>
+      <c r="D3">
+        <v>6.1691058204568217</v>
+      </c>
+      <c r="E3">
         <v>0</v>
-      </c>
-      <c r="C3">
-        <v>6.337486944452924</v>
-      </c>
-      <c r="D3">
-        <v>6.0765738119371013</v>
-      </c>
-      <c r="E3">
-        <v>6.6119708205550491</v>
       </c>
       <c r="F3" t="s">
         <v>9</v>
@@ -545,16 +545,16 @@
         <v>10</v>
       </c>
       <c r="B4">
+        <v>6.2407304324065196</v>
+      </c>
+      <c r="C4">
+        <v>5.7770807484344333</v>
+      </c>
+      <c r="D4">
+        <v>6.7485194222008396</v>
+      </c>
+      <c r="E4">
         <v>0</v>
-      </c>
-      <c r="C4">
-        <v>7.293471834915616</v>
-      </c>
-      <c r="D4">
-        <v>6.8311162281960858</v>
-      </c>
-      <c r="E4">
-        <v>7.7931441941325392</v>
       </c>
       <c r="F4" t="s">
         <v>11</v>
@@ -565,16 +565,16 @@
         <v>12</v>
       </c>
       <c r="B5">
-        <v>5.1260415451272709E-126</v>
+        <v>1.606468379536846</v>
       </c>
       <c r="C5">
-        <v>1.743448219287532</v>
+        <v>1.5272534922933549</v>
       </c>
       <c r="D5">
-        <v>1.662714294560083</v>
+        <v>1.690251072574859</v>
       </c>
       <c r="E5">
-        <v>1.828681151729453</v>
+        <v>6.5499050533686918E-80</v>
       </c>
       <c r="F5" t="s">
         <v>13</v>
@@ -585,16 +585,16 @@
         <v>14</v>
       </c>
       <c r="B6">
-        <v>9.5948605103374202E-19</v>
+        <v>1.7510181466137671</v>
       </c>
       <c r="C6">
-        <v>1.813905931063809</v>
+        <v>1.5121050640251299</v>
       </c>
       <c r="D6">
-        <v>1.578906167666474</v>
+        <v>2.032924104539263</v>
       </c>
       <c r="E6">
-        <v>2.0892978370002151</v>
+        <v>5.408027824556635E-15</v>
       </c>
       <c r="F6" t="s">
         <v>15</v>
@@ -605,16 +605,16 @@
         <v>16</v>
       </c>
       <c r="B7">
-        <v>9.5072622245218144E-7</v>
+        <v>1.776527214088786</v>
       </c>
       <c r="C7">
-        <v>1.7301985715366199</v>
+        <v>1.401546071719995</v>
       </c>
       <c r="D7">
-        <v>1.376045615697981</v>
+        <v>2.2679925249562891</v>
       </c>
       <c r="E7">
-        <v>2.1906079163858792</v>
+        <v>6.2661129115459097E-7</v>
       </c>
       <c r="F7" t="s">
         <v>17</v>
@@ -625,16 +625,16 @@
         <v>18</v>
       </c>
       <c r="B8">
-        <v>1.3440774882807211E-20</v>
+        <v>1.2551785906217861</v>
       </c>
       <c r="C8">
-        <v>1.269354630167153</v>
+        <v>1.190048609836833</v>
       </c>
       <c r="D8">
-        <v>1.2061649518829001</v>
+        <v>1.324176548887197</v>
       </c>
       <c r="E8">
-        <v>1.3361967695932651</v>
+        <v>2.340648609663976E-17</v>
       </c>
       <c r="F8" t="s">
         <v>19</v>
@@ -645,16 +645,16 @@
         <v>20</v>
       </c>
       <c r="B9">
-        <v>2.7684415980192989E-29</v>
+        <v>0.85143249169022883</v>
       </c>
       <c r="C9">
-        <v>0.85461254294350364</v>
+        <v>0.82740658759879426</v>
       </c>
       <c r="D9">
-        <v>0.83150758296173499</v>
+        <v>0.87614044215653553</v>
       </c>
       <c r="E9">
-        <v>0.87834676607645656</v>
+        <v>3.3436459188033939E-28</v>
       </c>
       <c r="F9" t="s">
         <v>21</v>
@@ -665,16 +665,16 @@
         <v>22</v>
       </c>
       <c r="B10">
-        <v>1.380198101204451E-133</v>
+        <v>2.833396835828152</v>
       </c>
       <c r="C10">
-        <v>2.8295782964359311</v>
+        <v>2.5699361251641522</v>
       </c>
       <c r="D10">
-        <v>2.5812938953589759</v>
+        <v>3.128415736073868</v>
       </c>
       <c r="E10">
-        <v>3.1060265985084281</v>
+        <v>1.3964156015360061E-117</v>
       </c>
       <c r="F10" t="s">
         <v>23</v>
@@ -685,16 +685,16 @@
         <v>24</v>
       </c>
       <c r="B11">
-        <v>9.9692697967793676E-5</v>
+        <v>0.75212492524472208</v>
       </c>
       <c r="C11">
-        <v>0.74522305666084676</v>
+        <v>0.64365098061861581</v>
       </c>
       <c r="D11">
-        <v>0.64200356619062571</v>
+        <v>0.87928123688323845</v>
       </c>
       <c r="E11">
-        <v>0.8656258267670508</v>
+        <v>2.8325780971935529E-4</v>
       </c>
       <c r="F11" t="s">
         <v>25</v>
@@ -705,16 +705,16 @@
         <v>26</v>
       </c>
       <c r="B12">
-        <v>2.4638876181198411E-73</v>
+        <v>0.62309763485942093</v>
       </c>
       <c r="C12">
-        <v>0.60161476052855978</v>
+        <v>0.58850797690236367</v>
       </c>
       <c r="D12">
-        <v>0.56938947231190806</v>
+        <v>0.65967226738356821</v>
       </c>
       <c r="E12">
-        <v>0.63562701302283564</v>
+        <v>1.198071955126523E-59</v>
       </c>
       <c r="F12" t="s">
         <v>27</v>
@@ -725,16 +725,16 @@
         <v>28</v>
       </c>
       <c r="B13">
-        <v>4.3385447612043289E-76</v>
+        <v>5.27477355247348</v>
       </c>
       <c r="C13">
-        <v>5.4868863984700162</v>
+        <v>4.1575238586578829</v>
       </c>
       <c r="D13">
-        <v>4.3822599873976706</v>
+        <v>6.7733953309379507</v>
       </c>
       <c r="E13">
-        <v>6.9482061125876582</v>
+        <v>2.502299196762463E-63</v>
       </c>
       <c r="F13" t="s">
         <v>29</v>
@@ -745,16 +745,16 @@
         <v>30</v>
       </c>
       <c r="B14">
-        <v>7.0211793612018003E-6</v>
+        <v>1.282570232718252</v>
       </c>
       <c r="C14">
-        <v>1.393125781583773</v>
+        <v>1.096646838078527</v>
       </c>
       <c r="D14">
-        <v>1.201541180952761</v>
+        <v>1.503223487432735</v>
       </c>
       <c r="E14">
-        <v>1.6189489775814001</v>
+        <v>1.552303600589875E-3</v>
       </c>
       <c r="F14" t="s">
         <v>31</v>
